--- a/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound5.xlsx
+++ b/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound5.xlsx
@@ -91,6 +91,24 @@
     <t>95th Percentile Score</t>
   </si>
   <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>Arlington, TX</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>Bridgeview, IL</t>
+  </si>
+  <si>
     <t>CAR</t>
   </si>
   <si>
@@ -100,15 +118,6 @@
     <t>Charlotte, NC</t>
   </si>
   <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>Bridgeview, IL</t>
-  </si>
-  <si>
     <t>MIA</t>
   </si>
   <si>
@@ -116,15 +125,6 @@
   </si>
   <si>
     <t>Fort Lauderdale, FL</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>Arlington, TX</t>
   </si>
 </sst>
 </file>
@@ -148,6 +148,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF1E191A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF9E200"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -156,7 +172,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC50A2A"/>
+      <color rgb="FF63B445"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,7 +180,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF63B445"/>
+      <color rgb="FFC50A2A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,22 +204,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF1E191A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFF9E200"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -219,13 +219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1785C8"/>
+        <fgColor rgb="FF00AE94"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF092051"/>
+        <fgColor rgb="FF020001"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,6 +243,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF1785C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF092051"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF00AA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -250,18 +262,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00AE94"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF020001"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,13 +301,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -700,19 +700,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="11">
-        <v>0.1550720806191244</v>
+        <v>0.7929857743461169</v>
       </c>
       <c r="C3" s="11"/>
       <c r="E3" s="11">
-        <v>0.7729610174871167</v>
+        <v>0.7721774315700952</v>
       </c>
       <c r="F3" s="11"/>
       <c r="H3" s="11">
-        <v>0.5063646252552572</v>
+        <v>0.1773155867386172</v>
       </c>
       <c r="I3" s="11"/>
       <c r="K3" s="11">
-        <v>0.7478961360294311</v>
+        <v>0.460331355661434</v>
       </c>
       <c r="L3" s="11"/>
     </row>
@@ -721,19 +721,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>0.578124190457973</v>
+        <v>0.9351724080114464</v>
       </c>
       <c r="C4" s="11"/>
       <c r="E4" s="11">
-        <v>0.7731148513139262</v>
+        <v>0.7623304750206131</v>
       </c>
       <c r="F4" s="11"/>
       <c r="H4" s="11">
-        <v>0.8983092671376547</v>
+        <v>0.5596056681663413</v>
       </c>
       <c r="I4" s="11"/>
       <c r="K4" s="11">
-        <v>0.9374387476247299</v>
+        <v>0.8913937400389866</v>
       </c>
       <c r="L4" s="11"/>
     </row>
@@ -742,19 +742,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="10">
-        <v>8.965092107056485</v>
+        <v>74.15784161140797</v>
       </c>
       <c r="C5" s="10"/>
       <c r="E5" s="10">
-        <v>59.75876421060133</v>
+        <v>58.86543882090277</v>
       </c>
       <c r="F5" s="10"/>
       <c r="H5" s="10">
-        <v>45.48720354174832</v>
+        <v>9.922680739317075</v>
       </c>
       <c r="I5" s="10"/>
       <c r="K5" s="10">
-        <v>70.11068171128045</v>
+        <v>41.03364887802626</v>
       </c>
       <c r="L5" s="10"/>
     </row>
@@ -763,28 +763,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="12">
-        <v>0.1376776</v>
+        <v>0.3440382</v>
       </c>
       <c r="C6" s="12">
-        <v>0.8623224</v>
+        <v>0.6354522</v>
       </c>
       <c r="E6" s="12">
-        <v>0.2272094</v>
+        <v>0.2164892</v>
       </c>
       <c r="F6" s="12">
-        <v>0.7727906</v>
+        <v>0.7622682</v>
       </c>
       <c r="H6" s="12">
-        <v>0.3145084</v>
+        <v>0.1284046</v>
       </c>
       <c r="I6" s="12">
-        <v>0.6854916</v>
+        <v>0.8533436</v>
       </c>
       <c r="K6" s="12">
-        <v>0.3538261</v>
+        <v>0.2996704</v>
       </c>
       <c r="L6" s="12">
-        <v>0.6461739</v>
+        <v>0.6718184</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -792,28 +792,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="13">
-        <v>20.4946106</v>
+        <v>28.8106852</v>
       </c>
       <c r="C7" s="13">
-        <v>41.9092894</v>
+        <v>36.2673556</v>
       </c>
       <c r="E7" s="13">
-        <v>17.1021984</v>
+        <v>17.1004084</v>
       </c>
       <c r="F7" s="13">
-        <v>28.2554674</v>
+        <v>28.261509</v>
       </c>
       <c r="H7" s="13">
-        <v>16.9880684</v>
+        <v>20.5003694</v>
       </c>
       <c r="I7" s="13">
-        <v>23.7840418</v>
+        <v>41.9344568</v>
       </c>
       <c r="K7" s="13">
-        <v>28.8037302</v>
+        <v>16.9887688</v>
       </c>
       <c r="L7" s="13">
-        <v>36.2688356</v>
+        <v>23.7975096</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -821,10 +821,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8" s="13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="13">
         <v>3</v>
@@ -836,13 +836,13 @@
         <v>5</v>
       </c>
       <c r="I8" s="13">
+        <v>17</v>
+      </c>
+      <c r="K8" s="13">
+        <v>5</v>
+      </c>
+      <c r="L8" s="13">
         <v>7</v>
-      </c>
-      <c r="K8" s="13">
-        <v>10</v>
-      </c>
-      <c r="L8" s="13">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -850,10 +850,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" s="13">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9" s="13">
         <v>6</v>
@@ -862,16 +862,16 @@
         <v>14</v>
       </c>
       <c r="H9" s="13">
+        <v>7</v>
+      </c>
+      <c r="I9" s="13">
+        <v>22</v>
+      </c>
+      <c r="K9" s="13">
         <v>6</v>
       </c>
-      <c r="I9" s="13">
+      <c r="L9" s="13">
         <v>10</v>
-      </c>
-      <c r="K9" s="13">
-        <v>12</v>
-      </c>
-      <c r="L9" s="13">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -879,10 +879,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="13">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" s="13">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10" s="13">
         <v>8</v>
@@ -891,16 +891,16 @@
         <v>16</v>
       </c>
       <c r="H10" s="13">
+        <v>8</v>
+      </c>
+      <c r="I10" s="13">
+        <v>26</v>
+      </c>
+      <c r="K10" s="13">
         <v>9</v>
       </c>
-      <c r="I10" s="13">
+      <c r="L10" s="13">
         <v>13</v>
-      </c>
-      <c r="K10" s="13">
-        <v>15</v>
-      </c>
-      <c r="L10" s="13">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -908,10 +908,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="13">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="13">
         <v>9</v>
@@ -920,16 +920,16 @@
         <v>18</v>
       </c>
       <c r="H11" s="13">
+        <v>12</v>
+      </c>
+      <c r="I11" s="13">
+        <v>28</v>
+      </c>
+      <c r="K11" s="13">
         <v>9</v>
       </c>
-      <c r="I11" s="13">
+      <c r="L11" s="13">
         <v>14</v>
-      </c>
-      <c r="K11" s="13">
-        <v>17</v>
-      </c>
-      <c r="L11" s="13">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -937,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="13">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E12" s="13">
         <v>10</v>
@@ -949,16 +949,16 @@
         <v>20</v>
       </c>
       <c r="H12" s="13">
+        <v>12</v>
+      </c>
+      <c r="I12" s="13">
+        <v>31</v>
+      </c>
+      <c r="K12" s="13">
         <v>11</v>
       </c>
-      <c r="I12" s="13">
+      <c r="L12" s="13">
         <v>16</v>
-      </c>
-      <c r="K12" s="13">
-        <v>19</v>
-      </c>
-      <c r="L12" s="13">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -966,10 +966,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="13">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E13" s="13">
         <v>12</v>
@@ -978,16 +978,16 @@
         <v>21</v>
       </c>
       <c r="H13" s="13">
+        <v>14</v>
+      </c>
+      <c r="I13" s="13">
+        <v>33</v>
+      </c>
+      <c r="K13" s="13">
         <v>12</v>
       </c>
-      <c r="I13" s="13">
+      <c r="L13" s="13">
         <v>17</v>
-      </c>
-      <c r="K13" s="13">
-        <v>21</v>
-      </c>
-      <c r="L13" s="13">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -995,10 +995,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="13">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C14" s="13">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E14" s="13">
         <v>13</v>
@@ -1007,16 +1007,16 @@
         <v>23</v>
       </c>
       <c r="H14" s="13">
+        <v>15</v>
+      </c>
+      <c r="I14" s="13">
+        <v>35</v>
+      </c>
+      <c r="K14" s="13">
         <v>13</v>
       </c>
-      <c r="I14" s="13">
+      <c r="L14" s="13">
         <v>19</v>
-      </c>
-      <c r="K14" s="13">
-        <v>22</v>
-      </c>
-      <c r="L14" s="13">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1024,10 +1024,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="13">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C15" s="13">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E15" s="13">
         <v>14</v>
@@ -1036,16 +1036,16 @@
         <v>24</v>
       </c>
       <c r="H15" s="13">
+        <v>17</v>
+      </c>
+      <c r="I15" s="13">
+        <v>36</v>
+      </c>
+      <c r="K15" s="13">
         <v>14</v>
       </c>
-      <c r="I15" s="13">
+      <c r="L15" s="13">
         <v>20</v>
-      </c>
-      <c r="K15" s="13">
-        <v>24</v>
-      </c>
-      <c r="L15" s="13">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1053,10 +1053,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="13">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C16" s="13">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E16" s="13">
         <v>15</v>
@@ -1065,16 +1065,16 @@
         <v>26</v>
       </c>
       <c r="H16" s="13">
+        <v>19</v>
+      </c>
+      <c r="I16" s="13">
+        <v>38</v>
+      </c>
+      <c r="K16" s="13">
         <v>15</v>
       </c>
-      <c r="I16" s="13">
+      <c r="L16" s="13">
         <v>22</v>
-      </c>
-      <c r="K16" s="13">
-        <v>26</v>
-      </c>
-      <c r="L16" s="13">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1082,10 +1082,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="13">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C17" s="13">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E17" s="13">
         <v>16</v>
@@ -1094,16 +1094,16 @@
         <v>27</v>
       </c>
       <c r="H17" s="13">
+        <v>19</v>
+      </c>
+      <c r="I17" s="13">
+        <v>41</v>
+      </c>
+      <c r="K17" s="13">
         <v>16</v>
       </c>
-      <c r="I17" s="13">
+      <c r="L17" s="13">
         <v>23</v>
-      </c>
-      <c r="K17" s="13">
-        <v>28</v>
-      </c>
-      <c r="L17" s="13">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1111,10 +1111,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="13">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C18" s="13">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E18" s="13">
         <v>17</v>
@@ -1123,16 +1123,16 @@
         <v>29</v>
       </c>
       <c r="H18" s="13">
+        <v>21</v>
+      </c>
+      <c r="I18" s="13">
+        <v>43</v>
+      </c>
+      <c r="K18" s="13">
         <v>17</v>
       </c>
-      <c r="I18" s="13">
+      <c r="L18" s="13">
         <v>24</v>
-      </c>
-      <c r="K18" s="13">
-        <v>29</v>
-      </c>
-      <c r="L18" s="13">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1140,10 +1140,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="13">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C19" s="13">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E19" s="13">
         <v>19</v>
@@ -1152,16 +1152,16 @@
         <v>30</v>
       </c>
       <c r="H19" s="13">
+        <v>22</v>
+      </c>
+      <c r="I19" s="13">
+        <v>45</v>
+      </c>
+      <c r="K19" s="13">
         <v>18</v>
       </c>
-      <c r="I19" s="13">
+      <c r="L19" s="13">
         <v>26</v>
-      </c>
-      <c r="K19" s="13">
-        <v>31</v>
-      </c>
-      <c r="L19" s="13">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1169,10 +1169,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="13">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C20" s="13">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E20" s="13">
         <v>20</v>
@@ -1181,16 +1181,16 @@
         <v>32</v>
       </c>
       <c r="H20" s="13">
+        <v>24</v>
+      </c>
+      <c r="I20" s="13">
+        <v>47</v>
+      </c>
+      <c r="K20" s="13">
         <v>19</v>
       </c>
-      <c r="I20" s="13">
+      <c r="L20" s="13">
         <v>27</v>
-      </c>
-      <c r="K20" s="13">
-        <v>33</v>
-      </c>
-      <c r="L20" s="13">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1198,10 +1198,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="13">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C21" s="13">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E21" s="13">
         <v>21</v>
@@ -1210,16 +1210,16 @@
         <v>34</v>
       </c>
       <c r="H21" s="13">
+        <v>26</v>
+      </c>
+      <c r="I21" s="13">
+        <v>50</v>
+      </c>
+      <c r="K21" s="13">
         <v>21</v>
       </c>
-      <c r="I21" s="13">
+      <c r="L21" s="13">
         <v>29</v>
-      </c>
-      <c r="K21" s="13">
-        <v>35</v>
-      </c>
-      <c r="L21" s="13">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1227,10 +1227,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="13">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="13">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E22" s="13">
         <v>23</v>
@@ -1239,16 +1239,16 @@
         <v>36</v>
       </c>
       <c r="H22" s="13">
+        <v>27</v>
+      </c>
+      <c r="I22" s="13">
+        <v>52</v>
+      </c>
+      <c r="K22" s="13">
         <v>22</v>
       </c>
-      <c r="I22" s="13">
+      <c r="L22" s="13">
         <v>31</v>
-      </c>
-      <c r="K22" s="13">
-        <v>37</v>
-      </c>
-      <c r="L22" s="13">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1256,10 +1256,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="13">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C23" s="13">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E23" s="13">
         <v>25</v>
@@ -1268,16 +1268,16 @@
         <v>38</v>
       </c>
       <c r="H23" s="13">
+        <v>29</v>
+      </c>
+      <c r="I23" s="13">
+        <v>55</v>
+      </c>
+      <c r="K23" s="13">
         <v>24</v>
       </c>
-      <c r="I23" s="13">
+      <c r="L23" s="13">
         <v>33</v>
-      </c>
-      <c r="K23" s="13">
-        <v>40</v>
-      </c>
-      <c r="L23" s="13">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1285,10 +1285,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="13">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C24" s="13">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E24" s="13">
         <v>27</v>
@@ -1297,16 +1297,16 @@
         <v>41</v>
       </c>
       <c r="H24" s="13">
+        <v>33</v>
+      </c>
+      <c r="I24" s="13">
+        <v>59</v>
+      </c>
+      <c r="K24" s="13">
         <v>26</v>
       </c>
-      <c r="I24" s="13">
+      <c r="L24" s="13">
         <v>35</v>
-      </c>
-      <c r="K24" s="13">
-        <v>43</v>
-      </c>
-      <c r="L24" s="13">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1314,10 +1314,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="13">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C25" s="13">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E25" s="13">
         <v>29</v>
@@ -1326,16 +1326,16 @@
         <v>44</v>
       </c>
       <c r="H25" s="13">
+        <v>36</v>
+      </c>
+      <c r="I25" s="13">
+        <v>64</v>
+      </c>
+      <c r="K25" s="13">
         <v>28</v>
       </c>
-      <c r="I25" s="13">
+      <c r="L25" s="13">
         <v>38</v>
-      </c>
-      <c r="K25" s="13">
-        <v>46</v>
-      </c>
-      <c r="L25" s="13">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1343,10 +1343,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="13">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C26" s="13">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E26" s="13">
         <v>34</v>
@@ -1355,16 +1355,16 @@
         <v>49</v>
       </c>
       <c r="H26" s="13">
+        <v>41</v>
+      </c>
+      <c r="I26" s="13">
+        <v>71</v>
+      </c>
+      <c r="K26" s="13">
         <v>32</v>
       </c>
-      <c r="I26" s="13">
+      <c r="L26" s="13">
         <v>43</v>
-      </c>
-      <c r="K26" s="13">
-        <v>52</v>
-      </c>
-      <c r="L26" s="13">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
